--- a/Scope.xlsx
+++ b/Scope.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDEA5B7-C8C8-450B-8048-6D5C089A12FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -33,145 +34,196 @@
     <t>Giao diện trang chủ quản trị</t>
   </si>
   <si>
-    <t>Đăng nhập, đăng xuất</t>
-  </si>
-  <si>
     <t>Trang quản trị nội dung</t>
   </si>
   <si>
-    <t>Đăng nhập, đăng xuất trang quản trị</t>
-  </si>
-  <si>
-    <t>Quản lý tài khoản nhân viên SPA</t>
-  </si>
-  <si>
-    <t>Quản lý tài khoản khách hàng</t>
-  </si>
-  <si>
-    <t>Quản lí Slider</t>
-  </si>
-  <si>
-    <t>Tìm kiếm, thêm, xem, xóa, sửa Slider</t>
-  </si>
-  <si>
-    <t>Quản lý sản phẩm làm đẹp</t>
-  </si>
-  <si>
-    <t>Quản lý dịch vụ làm đẹp</t>
-  </si>
-  <si>
-    <t>Quản lý lịch hẹn khách hàng</t>
-  </si>
-  <si>
-    <t>Quản lý Footer</t>
-  </si>
-  <si>
-    <t>Quản lý liên kết mạng xã hội</t>
-  </si>
-  <si>
-    <t>Quản lý dịch vụ HOT</t>
-  </si>
-  <si>
-    <t>Cập nhật liên kết mạng xã hội</t>
-  </si>
-  <si>
-    <t>Cập nhật sản phẩm hot để hiển thị lên đầu trang</t>
-  </si>
-  <si>
-    <t>Cập nhật footer</t>
-  </si>
-  <si>
-    <t>Tra thông tin khách hàng hẹn</t>
-  </si>
-  <si>
-    <t>Tìm kiếm, thêm xóa, sửa sản phẩm</t>
-  </si>
-  <si>
-    <t>Tìm kiếm, thêm xóa, sửa dịch vụ</t>
-  </si>
-  <si>
-    <t>Trang trủ Slider</t>
-  </si>
-  <si>
-    <t>Slider =&gt; Giới thiệu dịch vụ hot, khuyến mãi</t>
-  </si>
-  <si>
-    <t>Slider =&gt; Xem chi tiết</t>
-  </si>
-  <si>
-    <t>Slider =&gt; Liên hệ tư vấn</t>
-  </si>
-  <si>
-    <t>Đăng ký</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Quên mật khẩu</t>
-  </si>
-  <si>
-    <t>Tài khoản =&gt; Cập nhật thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>Hình ảnh =&gt; Link đến dịch vụ, sản phẩm ,..</t>
-  </si>
-  <si>
-    <t>Slider =&gt; Giới thiệu sản phẩm hot, khuyến mãi</t>
-  </si>
-  <si>
-    <t>Giới thiệu dịch vụ</t>
-  </si>
-  <si>
-    <t>Giới thiệu sản phẩm</t>
-  </si>
-  <si>
-    <t>Chi tiết chương trình khuyến mãi cho dịch vụ và sản phẩm</t>
-  </si>
-  <si>
-    <t>Liên hệ tư vấn trực tiếp với nhân viên qua SDT hoặc chat</t>
-  </si>
-  <si>
-    <t>Có Link đến mạng xã hội</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>Tài khoản =&gt; Quản lý danh sách lịch hẹn đã đặt</t>
-  </si>
-  <si>
-    <t>Tài khoản =&gt; Cập nhật độ thân thiết khách hàng</t>
-  </si>
-  <si>
-    <t>Quản lý những lịch hẹn đã đặt</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Link tới các hot social network: Facebook, twitter,…</t>
-  </si>
-  <si>
-    <t>Quản lý Member =&gt; Vàng, Bạc, Bạch Kim, cập nhật khuyến mãi</t>
-  </si>
-  <si>
     <t>End-User</t>
   </si>
   <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Tìm kiếm,thêm, xóa, sửa, phân quyền tài khoản</t>
-  </si>
-  <si>
-    <t>Tìm kiếm, xem, xóa, sửa tài khoản khách hàng, phân trang.</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Dash Board</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin Visitor, Customer, Booking, Services</t>
+  </si>
+  <si>
+    <t>Hiển thị Chart theo thông tin Visitor, Customer, Booking, Services</t>
+  </si>
+  <si>
+    <t>Hiển thị lịch</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Thêm Booking: Hiển thị spa bed còn trống theo thời gian khách hàng đến</t>
+  </si>
+  <si>
+    <t>Hiển thị schedule xem phòng nào đang có người booking, theo giờ, ngày</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blog Categories</t>
+  </si>
+  <si>
+    <t>Product Categories</t>
+  </si>
+  <si>
+    <t>Xem danh sách Product Categories</t>
+  </si>
+  <si>
+    <t>Services Categories</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa room</t>
+  </si>
+  <si>
+    <t>Xem, Thêm, xóa , sửa Booking</t>
+  </si>
+  <si>
+    <t>Xem, Thêm, xóa, sửa Product</t>
+  </si>
+  <si>
+    <t>Xem, Thêm, xóa, sửa Services</t>
+  </si>
+  <si>
+    <t>Xem, Thêm, xóa, sửa Services Categories</t>
+  </si>
+  <si>
+    <t>Xem, Thêm, xóa, sửa Blog</t>
+  </si>
+  <si>
+    <t>Xem, Thêm, xóa, sửa Blog Categories</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa bed</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Xem, xóa, sửa Customer</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa Our Story, Testimonial</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa Footer Categories</t>
+  </si>
+  <si>
+    <t>Footer Categories</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa Menu</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa Slide</t>
+  </si>
+  <si>
+    <t>Xem, thêm, xóa, sửa Footer, Link mạng xã hội,..</t>
+  </si>
+  <si>
+    <t>Trang chủ =&gt; Slide</t>
+  </si>
+  <si>
+    <t>Trang chủ =&gt; Our Story</t>
+  </si>
+  <si>
+    <t>Trang chủ =&gt; Featured Services</t>
+  </si>
+  <si>
+    <t>Trang chủ =&gt;Booking</t>
+  </si>
+  <si>
+    <t>Booking trên trang chủ</t>
+  </si>
+  <si>
+    <t>Hiển thị Featured Services trên trang chủ</t>
+  </si>
+  <si>
+    <t>Hiển thị Our Story trên trang chủ</t>
+  </si>
+  <si>
+    <t>Hiển thị Slide, có Link đến bài viết hoặc sản phẩm, có chức năng tự chạy</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách services</t>
+  </si>
+  <si>
+    <t>Xem chi tiết services</t>
+  </si>
+  <si>
+    <t>Phân trang danh sách services</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Product</t>
+  </si>
+  <si>
+    <t>Xem chi tiết Product</t>
+  </si>
+  <si>
+    <t>Phân trang danh sách Product</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Room - Bed, Time để khách hàng booking</t>
+  </si>
+  <si>
+    <t>Booking thành công =&gt; Trang  success thông báo ID Booking</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Hiển thị Our Story, List nhân viên, List Testimonial</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin contact, Map của Spa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -247,30 +299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -283,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -303,12 +331,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -321,13 +343,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,42 +628,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.77734375" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,496 +676,628 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>9</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>11</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="3"/>
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>12</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="5">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="A33" s="5">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="5">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="5">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="5">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="5">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="5">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="A39" s="5">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="5">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="A41" s="5">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
